--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>671089.6663024544</v>
+        <v>711410.363709553</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889767</v>
+        <v>337002.2430554236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8240289.624085052</v>
+        <v>8222662.983689153</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,16 +673,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,19 +749,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>85.31372784089211</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>110.9174757594852</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>202.2946864288974</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>62.88143347497287</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>97.34871926419898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1148,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>192.4940119365621</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.9303905489869</v>
+        <v>44.59914040735609</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1330,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>353.5759586385873</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1497,10 +1499,10 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U12" t="n">
         <v>225.8879277888686</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>99.34508049624266</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>321.7064610691117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>52.11411575496435</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>34.45403149117925</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>9.275596830496642</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>334.58170967322</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>56.51458129297905</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>49.38957925603672</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>339.0399185806811</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.76583591206386</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>57.44045292477198</v>
+        <v>16.88986550434898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>116.2349668968044</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.5310119231965</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.3807763757477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>136.0696023912436</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>242.2705779337556</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.3159054168623</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.69516235643</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>352.0426595656933</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>112.7990312838366</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.1944522398485</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>353.5759586385881</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3047,7 +3049,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>87.07476027504858</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3089,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>204.916656265211</v>
       </c>
       <c r="U34" t="n">
-        <v>230.2634979541055</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>269.010098463741</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>37.24325969548694</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,31 +3423,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59.66385641544514</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>140.1997601007687</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>57.40387281015133</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>270.6226856612329</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.3138620892168</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>153.5271835984416</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>156.1271626621471</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>50.97869079464257</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>26.64360395382583</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>223.1498336210771</v>
+        <v>33.77936158462983</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4370,10 +4372,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y2" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0815197256143</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C3" t="n">
-        <v>413.6284904444873</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>264.694080783236</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>105.4566257777805</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>105.4566257777805</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="4">
@@ -4483,7 +4485,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984131</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984131</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984131</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021274</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021274</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
         <v>122.2961490211351</v>
@@ -4580,37 +4582,37 @@
         <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185857</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424096</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424096</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424096</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424096</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424096</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424096</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424096</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>749.6274730425132</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.6274730425132</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179.272730768454</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>179.272730768454</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D6" t="n">
-        <v>179.272730768454</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299845</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299845</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299845</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299845</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299845</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.8095319084033</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972859</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.905047278894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347938</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>277.604770429261</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>179.272730768454</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>46.59526811792571</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014789</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
         <v>129.4741569655842</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>219.6362435135214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>219.6362435135214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>219.6362435135214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>219.6362435135214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>219.6362435135214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>219.6362435135214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098027</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369335</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415462</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>698.4535282668868</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T8" t="n">
-        <v>473.5132653508267</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>219.6362435135214</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V8" t="n">
-        <v>219.6362435135214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>219.6362435135214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>219.6362435135214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>219.6362435135214</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>580.4293576557607</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C9" t="n">
-        <v>405.9763283746337</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="D9" t="n">
-        <v>257.0419187133824</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="E9" t="n">
-        <v>109.6374838154158</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>109.6374838154158</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>109.6374838154158</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6374838154158</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683217</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399124</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>398.824578434775</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>600.5536970360766</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360766</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285688</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>954.9030226480438</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>782.4144152406848</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>580.4293576557607</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>580.4293576557607</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>580.4293576557607</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>580.4293576557607</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X9" t="n">
-        <v>580.4293576557607</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y9" t="n">
-        <v>580.4293576557607</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>952.5674858910851</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C11" t="n">
-        <v>952.5674858910851</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>952.5674858910851</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>952.5674858910851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
         <v>952.5674858910851</v>
@@ -5036,7 +5038,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5045,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.483574129469</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859355</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>952.5674858910851</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>952.5674858910851</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5145,7 +5147,7 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
         <v>2289.884200196743</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245969</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>286.5323736931987</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U13" t="n">
-        <v>286.5323736931987</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1905.140074719375</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.95295430729</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D14" t="n">
-        <v>764.6872557005397</v>
+        <v>1177.911859172213</v>
       </c>
       <c r="E14" t="n">
-        <v>378.8990031022955</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036444</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2644.508570053611</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2644.508570053611</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548715</v>
+        <v>2644.508570053611</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548715</v>
+        <v>2644.508570053611</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548715</v>
+        <v>2644.508570053611</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548715</v>
+        <v>2291.739914783497</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287635</v>
+        <v>2291.739914783497</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>2291.739914783497</v>
       </c>
     </row>
     <row r="15">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C16" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D16" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E16" t="n">
-        <v>108.9687959810045</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9687959810045</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>108.9687959810045</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>108.9687959810045</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036444</v>
@@ -5458,28 +5460,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U16" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V16" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W16" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X16" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C17" t="n">
-        <v>1546.944160717209</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D17" t="n">
-        <v>1188.678462110459</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E17" t="n">
-        <v>802.8902095122144</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>391.9043047226068</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5555,10 +5557,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="18">
@@ -5574,16 +5576,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5595,22 +5597,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>272.8312459770186</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C19" t="n">
-        <v>272.8312459770186</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="D19" t="n">
-        <v>272.8312459770186</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="E19" t="n">
-        <v>272.8312459770186</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="F19" t="n">
-        <v>272.8312459770186</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>103.831445715351</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5713,10 +5715,10 @@
         <v>500.820796875036</v>
       </c>
       <c r="X19" t="n">
-        <v>272.8312459770186</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y19" t="n">
-        <v>272.8312459770186</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>857.6950425204218</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C20" t="n">
-        <v>857.6950425204218</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D20" t="n">
-        <v>857.6950425204218</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1309.714918859356</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y20" t="n">
-        <v>1244.294882584544</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5825,10 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5841,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7118141694736</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="C22" t="n">
-        <v>438.7118141694736</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="D22" t="n">
-        <v>438.7118141694736</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="E22" t="n">
-        <v>438.7118141694736</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="F22" t="n">
-        <v>438.7118141694736</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="G22" t="n">
-        <v>269.712013907806</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="H22" t="n">
-        <v>111.9636413403362</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5944,16 +5946,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7118141694736</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y22" t="n">
-        <v>438.7118141694736</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6017,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2579.740033546703</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2325.978248184794</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1994.915360841223</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1642.146705571109</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961344</v>
@@ -6066,13 +6068,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6166,31 +6168,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>550.5654064942401</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y25" t="n">
-        <v>359.2716929833838</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>471.9067899221776</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="C26" t="n">
-        <v>471.9067899221776</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D26" t="n">
-        <v>471.9067899221776</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2559.705048198784</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2305.943262836876</v>
+        <v>2452.431335529581</v>
       </c>
       <c r="V26" t="n">
-        <v>1974.880375493305</v>
+        <v>2121.36844818601</v>
       </c>
       <c r="W26" t="n">
-        <v>1622.111720223191</v>
+        <v>1768.599792915896</v>
       </c>
       <c r="X26" t="n">
-        <v>1248.645961962111</v>
+        <v>1395.134034654816</v>
       </c>
       <c r="Y26" t="n">
-        <v>858.5066299862995</v>
+        <v>1004.994702679004</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>520.9088977430002</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="C28" t="n">
-        <v>351.9727148150933</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="D28" t="n">
-        <v>201.8560754027576</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>702.55736257324</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R28" t="n">
-        <v>702.55736257324</v>
+        <v>2563.999684643128</v>
       </c>
       <c r="S28" t="n">
-        <v>702.55736257324</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="T28" t="n">
-        <v>702.55736257324</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="U28" t="n">
-        <v>702.55736257324</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="V28" t="n">
-        <v>702.55736257324</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="W28" t="n">
-        <v>702.55736257324</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="X28" t="n">
-        <v>702.55736257324</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="Y28" t="n">
-        <v>702.55736257324</v>
+        <v>2349.711261461291</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>864.0386341629921</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C29" t="n">
-        <v>495.0761172225804</v>
+        <v>1564.58148384092</v>
       </c>
       <c r="D29" t="n">
-        <v>495.0761172225804</v>
+        <v>1206.315785234169</v>
       </c>
       <c r="E29" t="n">
-        <v>495.0761172225804</v>
+        <v>820.5275326359249</v>
       </c>
       <c r="F29" t="n">
-        <v>495.0761172225804</v>
+        <v>409.5416278463173</v>
       </c>
       <c r="G29" t="n">
-        <v>495.0761172225804</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>167.8813972585833</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>1640.777806202926</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
-        <v>1640.777806202926</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1250.638474227114</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632152</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632152</v>
+        <v>2346.564443260076</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632152</v>
+        <v>2346.564443260076</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632152</v>
+        <v>2346.564443260076</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632152</v>
+        <v>2346.564443260076</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632152</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.26528169842</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>2469.840903686824</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U31" t="n">
-        <v>2277.647576838039</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V31" t="n">
-        <v>2022.963088632152</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632152</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632152</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632152</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1683.829970582156</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C32" t="n">
-        <v>1683.829970582156</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D32" t="n">
-        <v>1683.829970582156</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E32" t="n">
-        <v>1298.041717983912</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F32" t="n">
-        <v>887.0558131943046</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>469.0920050924915</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>141.8972851284943</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V32" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>1683.829970582156</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y32" t="n">
-        <v>1683.829970582156</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
         <v>1194.968834417902</v>
@@ -6798,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S34" t="n">
-        <v>2482.860667836385</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T34" t="n">
-        <v>2255.552480504987</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>2342.015910972396</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1993.54646147304</v>
+        <v>920.5121489496507</v>
       </c>
       <c r="C35" t="n">
-        <v>1993.54646147304</v>
+        <v>920.5121489496507</v>
       </c>
       <c r="D35" t="n">
-        <v>1635.28076286629</v>
+        <v>920.5121489496507</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>920.5121489496507</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>509.5262441600432</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>91.56243605823005</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6941,7 +6943,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6962,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V35" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W35" t="n">
-        <v>1993.54646147304</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X35" t="n">
-        <v>1993.54646147304</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y35" t="n">
-        <v>1993.54646147304</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7010,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7017,22 +7019,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2636.88256938646</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C37" t="n">
-        <v>2636.88256938646</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D37" t="n">
-        <v>2486.765929974124</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E37" t="n">
-        <v>2338.852836391731</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F37" t="n">
-        <v>2191.96288889382</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1036.358670716696</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C38" t="n">
-        <v>1036.358670716696</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D38" t="n">
-        <v>1036.358670716696</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2584.136691639472</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.483574129469</v>
+        <v>2253.073804295901</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859355</v>
+        <v>1900.305149025787</v>
       </c>
       <c r="X38" t="n">
-        <v>1036.358670716696</v>
+        <v>1526.839390764707</v>
       </c>
       <c r="Y38" t="n">
-        <v>1036.358670716696</v>
+        <v>1136.700058788895</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
         <v>713.8062203571349</v>
@@ -7278,16 +7280,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7363,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610022</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W40" t="n">
-        <v>149.5382038240415</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X40" t="n">
-        <v>149.5382038240415</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>207.4089578252748</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C41" t="n">
-        <v>207.4089578252748</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D41" t="n">
-        <v>207.4089578252748</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="E41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
         <v>1836.345445977174</v>
@@ -7433,10 +7435,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
         <v>2247.308246834948</v>
@@ -7445,16 +7447,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859355</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>936.2491605982752</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y41" t="n">
-        <v>546.1098286224635</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="42">
@@ -7464,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7597,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U43" t="n">
-        <v>211.6471865296039</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V43" t="n">
-        <v>211.6471865296039</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W43" t="n">
-        <v>211.6471865296039</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>885.3850306156792</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C44" t="n">
-        <v>516.4225136752675</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2388.358616186807</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W44" t="n">
-        <v>2035.589960916692</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X44" t="n">
-        <v>1662.124202655613</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y44" t="n">
-        <v>1271.984870679801</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="45">
@@ -7722,34 +7724,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073964</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7840,16 +7842,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>502.7251118619119</v>
+        <v>694.0084169492324</v>
       </c>
       <c r="W46" t="n">
-        <v>502.7251118619119</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X46" t="n">
-        <v>274.7355609638946</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631353</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221036</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>333.3585268236793</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291452</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22610,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22635,19 +22637,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52.02978932231852</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22689,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>160.484111070505</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>44.5329991677731</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858214</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946026</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.2884486374759</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>256.5108343207664</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>167.4364142495716</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326044</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>108.3339765131054</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23033,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>146.0333095543162</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23069,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23100,22 +23102,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>11.71468990641401</v>
+        <v>113.0459400480449</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>67.9332040940474</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>164.3604017932788</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>16.15514203988175</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23434,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>21.8741453697221</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>85.16958467259974</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2.364286819847372</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>111.9799311553899</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>164.3604017932788</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>79.20246034757503</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23899,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>88.9064667299522</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>106.7813095857584</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="Y20" t="n">
-        <v>321.4721027439897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>77.52516886756626</v>
+        <v>118.0757562879892</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24184,16 +24186,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>100.2133534608534</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>24.62049154535643</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.20387697634709</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>80.3787179664142</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.953589574533652</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.806844538052015</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>43.97002962372781</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>61.74151045510166</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>39.13228496102462</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>3.115350019202367</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24889,13 +24891,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>11.69693313241942</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>64.85655596981267</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>20.1184491928733</v>
       </c>
       <c r="U34" t="n">
-        <v>56.01837628787223</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>112.9202716085207</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.6795130688702</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.1681237664922</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.11004215828225</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>193.820294698138</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>99.1084150172361</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.19271039829697</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25603,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>123.9453835684545</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.41997957426378</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>228.4031864738202</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25646,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25837,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>69.58249272689005</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25868,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>303.7043508260404</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>380.2324417878856</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -25919,10 +25921,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26080,16 +26082,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>28.98780970275092</v>
+        <v>218.3582817391982</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484493.4921751528</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26319,16 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972482</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="G2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="G2" t="n">
-        <v>245779.718513394</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
@@ -26341,7 +26343,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
@@ -26353,7 +26355,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133941</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266326</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.437683574</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525715</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>25338.71079138017</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
@@ -26454,10 +26456,10 @@
         <v>27086.83710496504</v>
       </c>
       <c r="O4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="P4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376168</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26491,13 +26493,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13096.39685629619</v>
+        <v>-13096.39685629617</v>
       </c>
       <c r="C6" t="n">
         <v>67673.03467525161</v>
       </c>
       <c r="D6" t="n">
-        <v>45252.42222637139</v>
+        <v>67673.03467525155</v>
       </c>
       <c r="E6" t="n">
-        <v>-238259.0343385546</v>
+        <v>-263384.7706979766</v>
       </c>
       <c r="F6" t="n">
         <v>169461.4033450194</v>
       </c>
       <c r="G6" t="n">
-        <v>169461.4033450195</v>
+        <v>169461.4033450194</v>
       </c>
       <c r="H6" t="n">
         <v>169461.4033450194</v>
@@ -26543,16 +26545,16 @@
         <v>169461.4033450194</v>
       </c>
       <c r="J6" t="n">
-        <v>106401.4607459132</v>
+        <v>106401.4607459131</v>
       </c>
       <c r="K6" t="n">
         <v>169461.4033450194</v>
       </c>
       <c r="L6" t="n">
-        <v>163835.7611164936</v>
+        <v>169461.4033450194</v>
       </c>
       <c r="M6" t="n">
-        <v>67027.28565438429</v>
+        <v>61488.04267096131</v>
       </c>
       <c r="N6" t="n">
         <v>169461.4033450194</v>
@@ -26561,7 +26563,7 @@
         <v>169461.4033450194</v>
       </c>
       <c r="P6" t="n">
-        <v>169461.4033450194</v>
+        <v>169461.4033450196</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26790,13 +26792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545555</v>
@@ -26805,31 +26807,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.730281530297</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400771</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028886</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028886</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400771</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028886</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367679</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887802</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035003</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760445</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324509</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841739</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544934</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679593</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318454</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294142</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104788</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.67671015524656</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750316</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688227</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523081</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605604</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.919449770552396</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467892</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994849</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259059</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166742</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471434</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988743</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848031</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150904</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.01918103713195</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750111</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815375</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34781,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.906790779802</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988703</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889699</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>203.7667864659613</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
-        <v>193.94078250313</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025438</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36686,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37160,7 +37162,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37634,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L41" t="n">
         <v>421.5361394435301</v>
@@ -37792,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37871,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38108,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>643103.9392868344</v>
+        <v>703811.9251730635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624706</v>
+        <v>337002.2430554235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8243252.136356125</v>
+        <v>8222662.983689154</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,22 +788,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>176.2637201985544</v>
+        <v>231.7728797354859</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>47.37794382058542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>78.90192142219793</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>47.50281385232032</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>20.85462475186284</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10.89269334375874</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>204.7452777895381</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>159.8350691069749</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.6968229440582</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>244.6181367769685</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
         <v>225.8879277888686</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>121.2699779972374</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>78.08506320366507</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>2.271846563894903</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.52079547363754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>66.94614978640953</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>251.2108163496528</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>76.80462337977876</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>68.19029374363612</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>108.8189052543898</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>58.80045981415134</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>359.0609569939821</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.861894591767224</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>59.72683757586862</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>268.7142756263974</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>263.8525156253501</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>89.307257450731</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>126.7632886126197</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>40.62363183383319</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>121.5536603314378</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.7218456862864</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>41.03250833503007</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>144.6266340417851</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>62.72779029530436</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>150.5540262346245</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>149.8794763036715</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.20781235414023</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>257.0719521914901</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>141.6178196669931</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>23.95612279213335</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>67.8417324117048</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>157.0044783406138</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>254.3476487849474</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>199.8692462101356</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.1622158054969</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>221.0021786982958</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>177.0614281605034</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>86.88462298447445</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>195.7571515107713</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,19 +4436,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V3" t="n">
-        <v>197.3253049269343</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.2583921493374</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>325.2583921493374</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>78.22532915828447</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>30.36882024860222</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>30.36882024860222</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>30.36882024860222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>30.36882024860222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>30.36882024860222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>969.7703423957684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>819.3245181314433</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>819.3245181314433</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>819.3245181314433</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>819.3245181314433</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>819.3245181314433</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>572.2914551403903</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2583921493374</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>325.2583921493374</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.56501858889139</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>19.56501858889139</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>239.4861551219973</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>481.6032601595282</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>723.7203651970592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>907.8577401332358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>978.2509294445696</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>898.5520189170969</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>670.3289257911208</v>
+        <v>612.718391167419</v>
       </c>
       <c r="V6" t="n">
-        <v>435.1768175593782</v>
+        <v>612.718391167419</v>
       </c>
       <c r="W6" t="n">
-        <v>435.1768175593782</v>
+        <v>612.718391167419</v>
       </c>
       <c r="X6" t="n">
-        <v>227.3253173538453</v>
+        <v>612.718391167419</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.56501858889139</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>291.098892013627</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>291.098892013627</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>291.098892013627</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>291.098892013627</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>291.098892013627</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>1031.902858279532</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>822.9009808048727</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>822.9009808048727</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>822.9009808048727</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>556.9999364092498</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>291.098892013627</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X8" t="n">
-        <v>291.098892013627</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y8" t="n">
-        <v>291.098892013627</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>407.9794697844668</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>233.5264405033398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>233.5264405033398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>233.5264405033398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>233.5264405033398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.5237199540885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6374838154158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109958</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231457</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360757</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285678</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>850.9830782217423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>850.9830782217423</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>615.8309699899996</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W9" t="n">
-        <v>615.8309699899996</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>407.9794697844668</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>407.9794697844668</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1251.855211652197</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C11" t="n">
-        <v>882.8926947117852</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>1167.480957434959</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>781.6927048367149</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>781.6927048367149</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5071,22 +5071,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>1485.892406545185</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X11" t="n">
-        <v>1485.892406545185</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y11" t="n">
-        <v>1485.892406545185</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="12">
@@ -5132,22 +5132,22 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
         <v>2289.884200196743</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C13" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D13" t="n">
-        <v>211.6913543878343</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="E13" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5223,28 +5223,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>579.9823256406182</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W13" t="n">
-        <v>290.5651556036576</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X13" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253591</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5308,22 +5308,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>2267.209817970484</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V14" t="n">
-        <v>1936.146930626913</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W14" t="n">
-        <v>1583.378275356799</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X14" t="n">
-        <v>1583.378275356799</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y14" t="n">
-        <v>1553.559290029893</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036445</v>
@@ -5460,28 +5460,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T16" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U16" t="n">
-        <v>211.6471865296041</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1933.544000781331</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C17" t="n">
-        <v>1564.581483840919</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D17" t="n">
-        <v>1206.315785234169</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>1206.315785234169</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2564.539973892373</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2310.778188530465</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1979.715301186894</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5615,7 +5615,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5703,22 +5703,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1036.358670716696</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C20" t="n">
-        <v>1036.358670716696</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D20" t="n">
-        <v>1036.358670716696</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>163.8610679359097</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
@@ -5764,40 +5764,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X20" t="n">
-        <v>1426.498002692507</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y20" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5840,34 +5840,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>667.8624625746712</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C22" t="n">
-        <v>667.8624625746712</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7458231623355</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>667.8624625746712</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>667.8624625746712</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>667.8624625746712</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>667.8624625746712</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>667.8624625746712</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>601.1385180919708</v>
+        <v>1757.312204670903</v>
       </c>
       <c r="C23" t="n">
-        <v>601.1385180919708</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D23" t="n">
-        <v>601.1385180919708</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E23" t="n">
-        <v>215.3502654937266</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
         <v>207.4089578252748</v>
@@ -5986,55 +5986,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304456</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2048.575150942547</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V23" t="n">
-        <v>1717.512263598976</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W23" t="n">
-        <v>1364.743608328862</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X23" t="n">
-        <v>991.2778500677825</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y23" t="n">
-        <v>601.1385180919708</v>
+        <v>1757.312204670903</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C25" t="n">
-        <v>559.1928012785276</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D25" t="n">
-        <v>409.0761618661918</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>261.1630682837987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1528.349585887293</v>
+        <v>1154.321255950571</v>
       </c>
       <c r="C26" t="n">
-        <v>1159.387068946881</v>
+        <v>1154.321255950571</v>
       </c>
       <c r="D26" t="n">
-        <v>801.1213703401306</v>
+        <v>1154.321255950571</v>
       </c>
       <c r="E26" t="n">
-        <v>801.1213703401306</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>801.1213703401306</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U26" t="n">
-        <v>2212.181128500978</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>1881.118241157407</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>1528.349585887293</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X26" t="n">
-        <v>1528.349585887293</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y26" t="n">
-        <v>1528.349585887293</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="27">
@@ -6323,7 +6323,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>291.0422802786092</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>144.1523327806988</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036446</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>343.3601518573251</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V28" t="n">
-        <v>343.3601518573251</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610023</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>688.4561315142857</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C29" t="n">
-        <v>688.4561315142857</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D29" t="n">
-        <v>330.1904329075352</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>330.1904329075352</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>330.1904329075352</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>1838.661061815299</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X29" t="n">
-        <v>1465.195303554219</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y29" t="n">
-        <v>1075.055971578407</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="30">
@@ -6518,73 +6518,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>529.4200491697815</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="U31" t="n">
-        <v>529.4200491697815</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="V31" t="n">
-        <v>274.7355609638946</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="W31" t="n">
-        <v>274.7355609638946</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1435.441956461044</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C32" t="n">
-        <v>1066.479439520632</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>1066.479439520632</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
-        <v>680.6911869223882</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
@@ -6730,22 +6730,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2212.181128500978</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2212.181128500978</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>2212.181128500978</v>
+        <v>1599.122169790778</v>
       </c>
       <c r="X32" t="n">
-        <v>2212.181128500978</v>
+        <v>1599.122169790778</v>
       </c>
       <c r="Y32" t="n">
-        <v>1822.041796525166</v>
+        <v>1208.982837814967</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6846,58 +6846,58 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>576.0542102320662</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>348.7460229006679</v>
+        <v>576.7355737986852</v>
       </c>
       <c r="V34" t="n">
-        <v>348.7460229006679</v>
+        <v>576.7355737986852</v>
       </c>
       <c r="W34" t="n">
-        <v>348.7460229006679</v>
+        <v>576.7355737986852</v>
       </c>
       <c r="X34" t="n">
         <v>348.7460229006679</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1659.880644283887</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>1290.918127343476</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>932.6524287367251</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>546.8641761384808</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>546.8641761384808</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>128.9003680366677</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>128.9003680366677</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2423.485734520779</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V35" t="n">
-        <v>2423.485734520779</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W35" t="n">
-        <v>2423.485734520779</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X35" t="n">
-        <v>2050.019976259699</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y35" t="n">
-        <v>1659.880644283887</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="36">
@@ -7013,10 +7013,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
         <v>309.190302261463</v>
@@ -7028,13 +7028,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>667.7988452409105</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C37" t="n">
-        <v>498.8626623130036</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>882.8926947117852</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C38" t="n">
-        <v>882.8926947117852</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117852</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V38" t="n">
-        <v>2057.295728843236</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W38" t="n">
-        <v>2033.097625012799</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X38" t="n">
-        <v>1659.631866751719</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y38" t="n">
-        <v>1269.492534775907</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7253,43 +7253,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.7988452409105</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C40" t="n">
-        <v>498.8626623130036</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D40" t="n">
         <v>348.7460229006679</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>569.538602044198</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>569.538602044198</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,22 +7435,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V41" t="n">
-        <v>2045.420119349963</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W41" t="n">
-        <v>2045.420119349963</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X41" t="n">
         <v>2045.420119349963</v>
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
         <v>670.8219208598708</v>
@@ -7514,19 +7514,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>222.8791647482714</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="V43" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W43" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X43" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.680947310029</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.680947310029</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548715</v>
+        <v>2068.458319400097</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548715</v>
+        <v>1737.395432056526</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548715</v>
+        <v>1384.626776786412</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287635</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1011.161018525332</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C46" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D46" t="n">
-        <v>348.7460229006679</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>141.7052272592275</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7845,13 +7845,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y46" t="n">
-        <v>530.3944877309076</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824675</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>136.8385818314783</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>362.2743407998537</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>373.8491954283778</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093847</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>197.5393732613979</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>354.079835614828</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22676,22 +22676,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>75.43126296236522</v>
+        <v>19.92210342543368</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>110.1203092595406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>334.5524262516764</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>104.6782363562706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>125.1683683173266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>121.2309555745209</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>178.4385682286545</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22950,25 +22950,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>149.4414326714929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521648</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>123.2029780126073</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>291.8274516623475</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>126.4013233359369</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.94970537138147</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>126.6879292296161</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.0370187194224</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>169.1660332438265</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>25.16398464933175</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23475,13 +23475,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>147.6245921853721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>363.0010452071127</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>356.7171431824161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23700,28 +23700,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>96.01048066168073</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>151.6385035656853</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>155.6652293920586</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>139.643696977879</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>99.05652735499172</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23943,16 +23943,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>298.0571404873216</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>310.9306408643177</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>152.4816825345733</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>6.211934777025419</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>399.0141511499442</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>278.1339930141896</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>113.2160944458644</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>149.9316543954449</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>78.00254480831991</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>159.518585629358</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>314.0594097868498</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>292.2305096893572</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>15.42369326373247</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>184.0025971230542</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>262.2494116999264</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>286.5131784221086</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>61.59151271539437</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>136.4023979383062</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>77.72350389072102</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>112.6591484869789</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>83.41728579109116</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>325.2848459252797</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>318.3962062443488</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>68.03062711747043</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>73.40460968518752</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>169.8618544683334</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25839,13 +25839,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>11.11965843648079</v>
+        <v>162.8303858730972</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>144.2707130727118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>74.16273934778593</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>80.42517927457646</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.82750184132345</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229463</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>468509.5306848605</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484493.4921751526</v>
+        <v>465428.5179229463</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26331,7 +26331,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
@@ -26349,13 +26349,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753535</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
-        <v>913.2558024571108</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.56311884739</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>25293.26066533936</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>25338.71079138016</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26487,22 +26487,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="L5" t="n">
-        <v>49231.47806340947</v>
-      </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25314.40747633661</v>
+        <v>-14318.19791830016</v>
       </c>
       <c r="C6" t="n">
-        <v>51699.94129532464</v>
+        <v>66451.23361324756</v>
       </c>
       <c r="D6" t="n">
-        <v>37641.98612414198</v>
+        <v>66451.23361324756</v>
       </c>
       <c r="E6" t="n">
-        <v>-244327.4480843742</v>
+        <v>-263991.6120725586</v>
       </c>
       <c r="F6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="G6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="H6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704374</v>
       </c>
       <c r="I6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="J6" t="n">
-        <v>100333.047000094</v>
+        <v>105794.6193713312</v>
       </c>
       <c r="K6" t="n">
-        <v>162479.7337967431</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="L6" t="n">
-        <v>158665.4264803528</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="M6" t="n">
-        <v>60958.87190856503</v>
+        <v>60881.20129637933</v>
       </c>
       <c r="N6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704376</v>
       </c>
       <c r="O6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="P6" t="n">
-        <v>163392.9895992001</v>
+        <v>168854.5619704375</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26755,25 +26755,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26807,22 +26807,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354706</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483226</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>222.1425621546524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.10423162760989</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>79.07191193225258</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
         <v>297.223041434342</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36208,19 +36208,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37630,19 +37630,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
